--- a/data/trans_orig/IP1022_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3FE457-5303-4A1A-8252-E59C318AFD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B57BAB-A540-4F64-847C-213EFE7F1FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AF6171D-861D-4145-B5FB-CB5B97BE49D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EEF1FDD-A409-41CA-BD63-9FE7DB34FBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,55 +101,55 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>91,56%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,19 +158,19 @@
     <t>6,29%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>6,02%</t>
@@ -179,31 +179,31 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>92,31%</t>
+    <t>92,39%</t>
   </si>
   <si>
     <t>95,27%</t>
@@ -215,109 +215,109 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526F0803-C4E5-49A6-9D88-51B17F2EE9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D164E9-99F6-43F0-AF51-75F993318836}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP1022_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1022_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B57BAB-A540-4F64-847C-213EFE7F1FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE71114-56A5-426D-8A15-ACA403821143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EEF1FDD-A409-41CA-BD63-9FE7DB34FBA4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E47A8461-A4C8-4B28-82EF-062A3E721C64}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Menores según si padecen otros problemas crónicos de salud en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,232 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +705,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D164E9-99F6-43F0-AF51-75F993318836}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5663996-15AA-485B-8F22-4463260918E4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +823,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7391</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5844</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13235</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47287</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>56160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>103447</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +925,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>5237</v>
+        <v>25113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>4045</v>
+        <v>35227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="N7" s="7">
-        <v>9283</v>
+        <v>60340</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>604</v>
       </c>
       <c r="D8" s="7">
-        <v>53520</v>
+        <v>433973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>614</v>
       </c>
       <c r="I8" s="7">
-        <v>47157</v>
+        <v>477156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>142</v>
+        <v>1218</v>
       </c>
       <c r="N8" s="7">
-        <v>100676</v>
+        <v>911129</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1080,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459086</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>655</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>512383</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1296</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>971469</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>30718</v>
+        <v>11300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16557</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
         <v>37</v>
       </c>
-      <c r="I10" s="7">
-        <v>25677</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="7">
-        <v>78</v>
-      </c>
       <c r="N10" s="7">
-        <v>56395</v>
+        <v>27857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>614</v>
+        <v>213</v>
       </c>
       <c r="D11" s="7">
-        <v>457487</v>
+        <v>138251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>604</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>422843</v>
+        <v>166792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1218</v>
+        <v>431</v>
       </c>
       <c r="N11" s="7">
-        <v>880331</v>
+        <v>305043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1235,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>655</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>488205</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>448520</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1296</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>936726</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>16031</v>
+        <v>43804</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>11606</v>
+        <v>57628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="N13" s="7">
-        <v>27638</v>
+        <v>101432</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>883</v>
       </c>
       <c r="D14" s="7">
-        <v>158552</v>
+        <v>619511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>908</v>
       </c>
       <c r="I14" s="7">
-        <v>139764</v>
+        <v>700108</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>431</v>
+        <v>1791</v>
       </c>
       <c r="N14" s="7">
-        <v>298314</v>
+        <v>1319619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1390,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>757736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1916</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1421051</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>68</v>
-      </c>
-      <c r="D16" s="7">
-        <v>51987</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>41329</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>125</v>
-      </c>
-      <c r="N16" s="7">
-        <v>93316</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>908</v>
-      </c>
-      <c r="D17" s="7">
-        <v>669558</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>884</v>
-      </c>
-      <c r="I17" s="7">
-        <v>610935</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1792</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1280492</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>721545</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652264</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1373808</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
